--- a/inputFiles/Segmentation.xlsx
+++ b/inputFiles/Segmentation.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lyndonchan/languageAzure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C5918D-FB9F-AD4D-A382-79E771DED76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85F92B4-51D5-A043-978A-BBBA614619C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="1000" windowWidth="27640" windowHeight="15880" xr2:uid="{97733F8E-00A3-E143-999F-9CB389F936C3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{97733F8E-00A3-E143-999F-9CB389F936C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Text</t>
   </si>
@@ -78,12 +78,156 @@
   </si>
   <si>
     <t>It is definitely worth to spend 2 hours watching Iron Man.</t>
+  </si>
+  <si>
+    <t>The customer service was exceptional.</t>
+  </si>
+  <si>
+    <t>The movie I saw last night was incredibly captivating.</t>
+  </si>
+  <si>
+    <t>I enjoy listening to classical music.</t>
+  </si>
+  <si>
+    <t>The food at this restaurant is outstanding.</t>
+  </si>
+  <si>
+    <t>The service provided here is top-notch.</t>
+  </si>
+  <si>
+    <t>I'm a fan of thriller movies.</t>
+  </si>
+  <si>
+    <t>Italian cuisine is good, but I prefer Mexican food.</t>
+  </si>
+  <si>
+    <t>Although this product is pricey, it's worth every penny.</t>
+  </si>
+  <si>
+    <t>The plot of this movie is intriguing. I highly recommend it.</t>
+  </si>
+  <si>
+    <t>I find comfort in listening to nostalgic songs.</t>
+  </si>
+  <si>
+    <t>The new laptop I purchased is incredibly fast and efficient.</t>
+  </si>
+  <si>
+    <t>Watching the Avengers was an unforgettable experience.</t>
+  </si>
+  <si>
+    <t>This product is perfect for my needs.</t>
+  </si>
+  <si>
+    <t>The customer service was absolutely terrible.</t>
+  </si>
+  <si>
+    <t>The movie I watched last night was a complete waste of time.</t>
+  </si>
+  <si>
+    <t>I have a preference for rock music.</t>
+  </si>
+  <si>
+    <t>The food quality at this establishment is exceptional.</t>
+  </si>
+  <si>
+    <t>The service here always exceeds my expectations.</t>
+  </si>
+  <si>
+    <t>I'm a fan of suspenseful movies.</t>
+  </si>
+  <si>
+    <t>I enjoy both Chinese and Japanese cuisine, but I lean more towards Japanese.</t>
+  </si>
+  <si>
+    <t>This product is practical but overpriced.</t>
+  </si>
+  <si>
+    <t>I couldn't take my eyes off the screen while watching this action-packed movie.</t>
+  </si>
+  <si>
+    <t>Listening to soothing love songs helps me cope with sadness.</t>
+  </si>
+  <si>
+    <t>The computer I bought performs exceptionally well.</t>
+  </si>
+  <si>
+    <t>Spending 2 hours watching Iron Man was totally worth it.</t>
+  </si>
+  <si>
+    <t>I am highly satisfied with this product.</t>
+  </si>
+  <si>
+    <t>The customer service provided was outstanding.</t>
+  </si>
+  <si>
+    <t>The movie I saw recently was incredibly dull.</t>
+  </si>
+  <si>
+    <t>I have a preference for country music.</t>
+  </si>
+  <si>
+    <t>The food served here is delicious.</t>
+  </si>
+  <si>
+    <t>The service at this restaurant is consistently excellent.</t>
+  </si>
+  <si>
+    <t>I enjoy watching horror movies in my free time.</t>
+  </si>
+  <si>
+    <t>Japanese food is good, but I prefer Korean cuisine.</t>
+  </si>
+  <si>
+    <t>This product is practical and worth the price.</t>
+  </si>
+  <si>
+    <t>The movie I watched last night had an amazing storyline. I highly recommend it.</t>
+  </si>
+  <si>
+    <t>Listening to uplifting love songs helps me through tough times.</t>
+  </si>
+  <si>
+    <t>The computer I purchased has exceptional performance.</t>
+  </si>
+  <si>
+    <t>Watching Avengers for 2 hours was an absolute delight.</t>
+  </si>
+  <si>
+    <t>This product perfectly meets my requirements.</t>
+  </si>
+  <si>
+    <t>The customer service was absolutely dreadful.</t>
+  </si>
+  <si>
+    <t>The movie I watched yesterday was extremely uninteresting.</t>
+  </si>
+  <si>
+    <t>I have a fondness for jazz music.</t>
+  </si>
+  <si>
+    <t>The food at this restaurant is simply delectable.</t>
+  </si>
+  <si>
+    <t>The service provided here is first-rate.</t>
+  </si>
+  <si>
+    <t>I'm a fan of sci-fi movies.</t>
+  </si>
+  <si>
+    <t>Thai food is good, but I prefer Indian cuisine.</t>
+  </si>
+  <si>
+    <t>$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;HK$&quot;#,##0.00_);[Red]\(&quot;HK$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -113,8 +257,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C3BE63-6D91-914E-AB70-73E9D22C43E0}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -441,73 +587,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/inputFiles/Segmentation.xlsx
+++ b/inputFiles/Segmentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lyndonchan/languageAzure/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aviragsrivastava/Downloads/GitHub/languageAzure/inputFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85F92B4-51D5-A043-978A-BBBA614619C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4896D1AA-8774-0A4D-B15F-ECE02CD819D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{97733F8E-00A3-E143-999F-9CB389F936C3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{97733F8E-00A3-E143-999F-9CB389F936C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Text</t>
   </si>
@@ -216,9 +216,6 @@
   </si>
   <si>
     <t>Thai food is good, but I prefer Indian cuisine.</t>
-  </si>
-  <si>
-    <t>$</t>
   </si>
 </sst>
 </file>
@@ -257,9 +254,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -578,7 +574,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,253 +583,253 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
@@ -876,10 +872,7 @@
       <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="E58" t="s">
-        <v>60</v>
-      </c>
-      <c r="F58" s="2"/>
+      <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
